--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,15 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12480" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="Restaurant_Create_Bill" sheetId="1" r:id="rId1"/>
+    <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
     <sheet name="Restaurant_List_Menu" sheetId="5" r:id="rId2"/>
-    <sheet name="Restaurant_Add_Item_To_Bill" sheetId="4" r:id="rId3"/>
-    <sheet name="Check_In_Bag_Player4" sheetId="6" r:id="rId4"/>
-    <sheet name="Undo_Check_In" sheetId="3" r:id="rId5"/>
-    <sheet name="Check_In_Ekyc" sheetId="2" r:id="rId6"/>
+    <sheet name="Restaurant_Add_Item_Player1" sheetId="4" r:id="rId3"/>
+    <sheet name="Kiosk_Create_Bill_Player1" sheetId="6" r:id="rId4"/>
+    <sheet name="Kiosk_List_Menu" sheetId="3" r:id="rId5"/>
+    <sheet name="Kiosk_Add_Item_Player1" sheetId="2" r:id="rId6"/>
+    <sheet name="MiniBar_Create_Bill_Player1" sheetId="7" r:id="rId7"/>
+    <sheet name="MiniBar_List_Menu" sheetId="8" r:id="rId8"/>
+    <sheet name="MiniBar_Add_Item_Player1" sheetId="9" r:id="rId9"/>
+    <sheet name="Driving_Create_Bill_Player1" sheetId="10" r:id="rId10"/>
+    <sheet name="Driving_List_Menu" sheetId="11" r:id="rId11"/>
+    <sheet name="Driving_Add_Item_Player1" sheetId="12" r:id="rId12"/>
+    <sheet name="Rental_Create_Bill_Player1" sheetId="13" r:id="rId13"/>
+    <sheet name="Rental_List_Menu" sheetId="14" r:id="rId14"/>
+    <sheet name="Retal_Add_Item_Player1" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="131">
   <si>
     <t>tc_id</t>
   </si>
@@ -115,6 +124,9 @@
     <t>{{CTX:COURSE_UID}}</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>TABLE</t>
   </si>
   <si>
@@ -277,15 +289,24 @@
     <t>restaurant_add_1item_to_bill_request.json</t>
   </si>
   <si>
-    <t>FB_1</t>
+    <t>{{CTX:ITEM_CODE_0}}</t>
   </si>
   <si>
     <t>CREATE</t>
   </si>
   <si>
+    <t>{{CTX:UNIT_PRICE_0}}</t>
+  </si>
+  <si>
     <t>PERCENT</t>
   </si>
   <si>
+    <t>{{CTX:ITEM_ID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_ID_0}}</t>
+  </si>
+  <si>
     <t>PROCESS</t>
   </si>
   <si>
@@ -295,244 +316,124 @@
     <t>restaurant_add_item_to_bill_expect.json</t>
   </si>
   <si>
+    <t>ADD_2ITEM_PLAYER1_001</t>
+  </si>
+  <si>
     <t>Kiểm tra add 2 item cho player 1</t>
   </si>
   <si>
     <t>restaurant_add_2item_to_bill_request.json</t>
   </si>
   <si>
-    <t>FB_2</t>
-  </si>
-  <si>
-    <t>cms_user</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>hole</t>
+    <t>{{CTX:ITEM_CODE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:UNIT_PRICE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ITEM_ID_1}}</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>KIOSK</t>
+  </si>
+  <si>
+    <t>Kiểm tra lấy danh sách item của kho kiosk</t>
+  </si>
+  <si>
+    <t>kiosk_list_menu_request.json</t>
+  </si>
+  <si>
+    <t>kiosk_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>kiosk_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>kiosk_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>MINI_B</t>
+  </si>
+  <si>
+    <t>mini_bar_list_menu_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>mini_bar_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>mini_bar_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>driving_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>driving_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>DRIVING</t>
+  </si>
+  <si>
+    <t>is_driving</t>
   </si>
   <si>
     <t>guest_style</t>
   </si>
   <si>
-    <t>guest_style_name</t>
-  </si>
-  <si>
-    <t>booking_date</t>
-  </si>
-  <si>
-    <t>course_type</t>
-  </si>
-  <si>
-    <t>tee_type</t>
-  </si>
-  <si>
-    <t>customer_nationality_id</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>sale_name</t>
-  </si>
-  <si>
-    <t>sale_account</t>
-  </si>
-  <si>
-    <t>member_uid_of_guest</t>
-  </si>
-  <si>
-    <t>member_card_uid</t>
-  </si>
-  <si>
-    <t>agency_id</t>
-  </si>
-  <si>
-    <t>fee_info.golf_fee</t>
-  </si>
-  <si>
-    <t>fee_info.buggy_fee</t>
-  </si>
-  <si>
-    <t>fee_info.odd_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.caddie_fee</t>
-  </si>
-  <si>
-    <t>fee_info.private_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.has_price_spread</t>
-  </si>
-  <si>
-    <t>fee_info.package_add_on_fee</t>
-  </si>
-  <si>
-    <t>fee_info.add_on_fee</t>
-  </si>
-  <si>
-    <t>is_private_buggy</t>
-  </si>
-  <si>
-    <t>agency_paid_all</t>
-  </si>
-  <si>
-    <t>agency_player_pay</t>
-  </si>
-  <si>
-    <t>voucher_apply</t>
-  </si>
-  <si>
-    <t>is_change_voucher</t>
-  </si>
-  <si>
-    <t>assert_check_in_time</t>
-  </si>
-  <si>
-    <t>assert_bag_status</t>
-  </si>
-  <si>
-    <t>assert_bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>check_in_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:USER_NAME}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_3}}</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>{{CTX:FULL_NAME}}</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>check_in_bag_expect.json</t>
-  </si>
-  <si>
-    <t>WAITING</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_002</t>
-  </si>
-  <si>
-    <t>MB_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_UID_OF_GUEST_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_CARD_UID_3}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_003</t>
-  </si>
-  <si>
-    <t>MBG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_004</t>
-  </si>
-  <si>
-    <t>NG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_005</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>check_in_bag_agency_request.json</t>
+    <t>assert_size_rentals</t>
+  </si>
+  <si>
+    <t>driving_list_menu_request.json</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>UCI_001</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG}}</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_expect.json</t>
-  </si>
-  <si>
-    <t>check_sum</t>
-  </si>
-  <si>
-    <t>assert_code</t>
-  </si>
-  <si>
-    <t>assert_desc</t>
-  </si>
-  <si>
-    <t>CI_EKYC_001</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_request.json</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM}}</t>
-  </si>
-  <si>
-    <t>{{TODAY}}</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_expect.json</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Success</t>
+    <t>{{CTX:GUEST_STYLE_0}}</t>
+  </si>
+  <si>
+    <t>driving_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>items[0].hole</t>
+  </si>
+  <si>
+    <t>items[1].hole</t>
+  </si>
+  <si>
+    <t>driving_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>RENTAL</t>
+  </si>
+  <si>
+    <t>driving_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>driving_add_2item_to_bill_request.json</t>
   </si>
 </sst>
 </file>
@@ -540,12 +441,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,14 +462,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -577,7 +470,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,12 +628,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -751,24 +650,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,82 +969,88 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,10 +1059,10 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,10 +1071,10 @@
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,10 +1083,10 @@
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,10 +1095,10 @@
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,108 +1107,78 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1332,7 +1189,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1860,163 +1717,897 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1333333333333" style="1" customWidth="1"/>
-    <col min="8" max="13" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7904761904762" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1619047619048" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.14285714285714" style="1"/>
-    <col min="23" max="23" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
+    <col min="9" max="13" width="16.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.4296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36.7890625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.4296875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="16">
+        <v>324</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="16">
+        <v>2</v>
+      </c>
+      <c r="L2" s="16">
+        <v>1</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="16">
+        <v>200</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="16">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="16">
+        <v>320</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="16">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.0078125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8359375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.8359375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="31.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.2890625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.859375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.4296875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="16">
+        <v>320</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="16">
+        <v>200</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8359375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.71875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7734375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.7734375" style="1" customWidth="1"/>
+    <col min="29" max="30" width="17.6171875" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="27" t="b">
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>320</v>
+      </c>
+      <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="5">
+        <v>18</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="5">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>320</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27">
-        <v>324</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="27">
-        <v>2</v>
-      </c>
-      <c r="L2" s="27">
+      <c r="H3" s="9">
+        <v>320</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="27" t="s">
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="5">
+        <v>18</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="AF3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="S2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="AM3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>320</v>
+      </c>
+      <c r="AO3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7">
-        <v>324</v>
+      <c r="AP3" s="9">
+        <v>1300000</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2027,155 +2618,155 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.14285714285714" style="1"/>
-    <col min="22" max="22" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8359375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="17.8359375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8359375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.4296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.2890625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.859375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.4296875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="M1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>44</v>
+      <c r="T1" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
+      <c r="A2" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="27">
+        <v>48</v>
+      </c>
+      <c r="E2" s="16">
         <v>10000</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27" t="s">
+      <c r="K2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="27">
+      <c r="L2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="16">
         <v>324</v>
       </c>
-      <c r="P2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="28"/>
+      <c r="P2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="22"/>
       <c r="R2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="7">
+        <v>54</v>
+      </c>
+      <c r="S2" s="16">
         <v>200</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="9">
         <v>2</v>
       </c>
     </row>
@@ -2190,389 +2781,394 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="27" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
+    <col min="20" max="21" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="O1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="R1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="U1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Y1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AD1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AH1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AI1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AO1" s="15" t="s">
         <v>77</v>
       </c>
+      <c r="AP1" s="15" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" s="20" customFormat="1" customHeight="1" spans="1:42">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="23" t="b">
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>324</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="R2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="16">
         <v>324</v>
       </c>
-      <c r="I2" s="23">
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>324</v>
+      </c>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="23">
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="23">
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="23">
-        <v>100000</v>
-      </c>
-      <c r="P2" s="23" t="s">
+      <c r="N3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="O3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
         <v>0</v>
       </c>
-      <c r="R2" s="23">
-        <v>2488</v>
-      </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="23">
-        <v>79270</v>
-      </c>
-      <c r="AE2" s="23">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="23">
+      <c r="R3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="26">
+      <c r="AA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>324</v>
+      </c>
+      <c r="AO3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="7">
-        <v>324</v>
-      </c>
-      <c r="AO2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP2" s="26">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>324</v>
-      </c>
-      <c r="I3" s="23">
-        <v>2</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="23">
-        <v>1</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="23">
-        <v>1</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="23">
-        <v>100000</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>0</v>
-      </c>
-      <c r="R3" s="23">
-        <v>2488</v>
-      </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="23">
-        <v>1</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" s="23">
-        <v>100000</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="23">
-        <v>2489</v>
-      </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="23">
-        <v>79270</v>
-      </c>
-      <c r="AE3" s="23">
-        <v>100</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL3" s="26">
-        <v>200</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>324</v>
-      </c>
-      <c r="AO3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP3" s="26">
+      <c r="AP3" s="9">
         <v>200000</v>
       </c>
     </row>
@@ -2585,688 +3181,158 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="27" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.14285714285714" style="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:40">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="16">
+        <v>316</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O2" s="16">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>121</v>
+      <c r="R2" s="16">
+        <v>316</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="14">
-        <v>400</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN2" s="14">
-        <f>G2</f>
-        <v>400</v>
-      </c>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
     </row>
-    <row r="3" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A3" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="14">
-        <f>G2+1</f>
-        <v>401</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN3" s="14">
-        <f>G3</f>
-        <v>401</v>
-      </c>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
     </row>
-    <row r="4" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="14">
-        <f>G3+1</f>
-        <v>402</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN4" s="14">
-        <f>G4</f>
-        <v>402</v>
-      </c>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
     </row>
-    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14">
-        <f>G4+1</f>
-        <v>403</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN5" s="14">
-        <f>G5</f>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="14">
-        <f>G5+1</f>
-        <v>404</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14">
-        <v>378</v>
-      </c>
-      <c r="W6" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="X6" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN6" s="14">
-        <f>G6</f>
-        <v>404</v>
-      </c>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3277,79 +3343,152 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.8359375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.4296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4296875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:19">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>153</v>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A2" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="7">
+        <v>101</v>
+      </c>
+      <c r="E2" s="16">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="16">
+        <v>316</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="16">
         <v>200</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3361,112 +3500,1124 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.71875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="AK1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="AL1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>159</v>
+      <c r="AM1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>160</v>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>316</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL2" s="9">
         <v>200</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>166</v>
+      <c r="AM2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>316</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>316</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>316</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="16">
+        <v>319</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="16">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="16">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.8359375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.4296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4296875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="16">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="16">
+        <v>319</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="16">
+        <v>200</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.71875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>319</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>319</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>319</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>319</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12480" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Rental_Create_Bill_Player1" sheetId="13" r:id="rId13"/>
     <sheet name="Rental_List_Menu" sheetId="14" r:id="rId14"/>
     <sheet name="Retal_Add_Item_Player1" sheetId="15" r:id="rId15"/>
+    <sheet name="Proshop_Create_Bill_Player1" sheetId="16" r:id="rId16"/>
+    <sheet name="Proshop_List_Menu" sheetId="17" r:id="rId17"/>
+    <sheet name="Proshop_Add_Item_Player1" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="178">
   <si>
     <t>tc_id</t>
   </si>
@@ -434,6 +437,147 @@
   </si>
   <si>
     <t>driving_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>rental_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>rental_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>assert_rentals</t>
+  </si>
+  <si>
+    <t>assert_booking_buggy</t>
+  </si>
+  <si>
+    <t>assert_booking_caddie</t>
+  </si>
+  <si>
+    <t>Kiểm tra lấy danh sách item của rental</t>
+  </si>
+  <si>
+    <t>rental_list_menu_request.json</t>
+  </si>
+  <si>
+    <t>rental_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>items[0].caddie_code</t>
+  </si>
+  <si>
+    <t>items[0].name</t>
+  </si>
+  <si>
+    <t>items[1].caddie_code</t>
+  </si>
+  <si>
+    <t>items[1].name</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm 1 item rental cho bag</t>
+  </si>
+  <si>
+    <t>rental_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>rental_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm Booking caddie cho bag</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_CADDIE_NAME}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_CADDIE_FEE}}</t>
+  </si>
+  <si>
+    <t>CADDIE</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_003</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm Thuê xe (1/2 xe)</t>
+  </si>
+  <si>
+    <t>rental_fee</t>
+  </si>
+  <si>
+    <t>{{CTX:RENTAL_CAR_FEE_18}}</t>
+  </si>
+  <si>
+    <t>BUGGY</t>
+  </si>
+  <si>
+    <t>{{CTX:RENTAL_CAR_HOLE_18}}</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm Thuê riêng xe</t>
+  </si>
+  <si>
+    <t>private_car_fee</t>
+  </si>
+  <si>
+    <t>{{CTX:PRIVATE_CAR_FEE_18}}</t>
+  </si>
+  <si>
+    <t>{{CTX:PRIVATE_CAR_HOLE_18}}</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_005</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm Thuê lẻ xe</t>
+  </si>
+  <si>
+    <t>odd_car_fee</t>
+  </si>
+  <si>
+    <t>{{CTX:ODD_CAR_FEE_18}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ODD_CAR_HOLE_18}}</t>
+  </si>
+  <si>
+    <t>rental_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>proshop_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>PROSHOP</t>
+  </si>
+  <si>
+    <t>assert_data</t>
+  </si>
+  <si>
+    <t>assert_total</t>
+  </si>
+  <si>
+    <t>proshop_list_menu_request.json</t>
+  </si>
+  <si>
+    <t>proshop_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>proshop_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>proshop_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>proshop_add_2item_to_bill_request.json</t>
   </si>
 </sst>
 </file>
@@ -441,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -462,18 +606,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -969,16 +1113,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,17 +1271,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1145,19 +1289,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,10 +1307,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,8 +1322,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1189,7 +1333,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1720,30 +1864,30 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="13" width="16.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.4296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7890625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.4296875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="13" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.14285714285714" style="1"/>
+    <col min="23" max="23" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
@@ -1759,10 +1903,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
@@ -1771,63 +1915,63 @@
       <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1836,41 +1980,41 @@
       <c r="H2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>324</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>2</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>200</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="15">
         <v>324</v>
       </c>
     </row>
@@ -1886,32 +2030,32 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
@@ -1927,100 +2071,100 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>320</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>200</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>320</v>
       </c>
     </row>
@@ -2048,27 +2192,27 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.0078125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8359375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.8359375" style="3" customWidth="1"/>
-    <col min="10" max="11" width="31.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.2890625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.859375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.4296875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="10" max="11" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.14285714285714" style="1"/>
+    <col min="15" max="15" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
@@ -2084,16 +2228,16 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="19" t="s">
@@ -2102,39 +2246,39 @@
       <c r="J1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>320</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="20" t="s">
@@ -2143,10 +2287,10 @@
       <c r="J2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>200</v>
       </c>
       <c r="M2" s="9">
@@ -2164,49 +2308,49 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.8359375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.71875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="24.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7734375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="12.7734375" style="1" customWidth="1"/>
-    <col min="29" max="30" width="17.6171875" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="29" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
@@ -2222,132 +2366,132 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2387,11 +2531,11 @@
       <c r="Q2" s="9">
         <v>0</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="5" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="7">
         <v>18</v>
       </c>
       <c r="U2" s="9"/>
@@ -2400,9 +2544,9 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="5">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="7">
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
@@ -2414,44 +2558,44 @@
       <c r="AF2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="11"/>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="11"/>
+      <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>320</v>
       </c>
       <c r="AO2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AP2" s="9">
-        <v>300000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2491,11 +2635,11 @@
       <c r="Q3" s="9">
         <v>0</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -2516,11 +2660,11 @@
       <c r="Z3" s="9">
         <v>0</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="5" t="s">
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
@@ -2532,31 +2676,31 @@
       <c r="AF3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9">
         <v>0</v>
       </c>
-      <c r="AI3" s="11"/>
+      <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <v>320</v>
       </c>
       <c r="AO3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AP3" s="9">
-        <v>1300000</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -2568,14 +2712,160 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>321</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2584,14 +2874,127 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="10" max="11" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15">
+        <v>321</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="15">
+        <v>200</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2600,14 +3003,1575 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="23" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="31" max="34" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="35" max="37" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="38" max="38" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="40" max="40" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:46">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>321</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="7">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>321</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="7">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>321</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>321</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>321</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>321</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" s="7">
+        <v>18</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>322</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="8" width="30" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="13" max="18" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="15">
+        <v>322</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="15">
+        <v>200</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>322</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2618,36 +4582,36 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8359375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="17.8359375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.8359375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.4296875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.2890625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.859375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.4296875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.14285714285714" style="1"/>
+    <col min="22" max="22" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
@@ -2663,107 +4627,107 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>10000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>324</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>200</v>
       </c>
       <c r="T2" s="9">
@@ -2785,45 +4749,45 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
-    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
-    <col min="20" max="21" width="24.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
@@ -2839,132 +4803,132 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3009,8 +4973,8 @@
       <c r="R2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
@@ -3018,8 +4982,8 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
         <v>87</v>
       </c>
@@ -3029,24 +4993,24 @@
       <c r="AF2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="11"/>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="11"/>
+      <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="7" t="s">
         <v>90</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>324</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -3057,16 +5021,16 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3111,8 +5075,8 @@
       <c r="R3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
         <v>94</v>
       </c>
@@ -3134,8 +5098,8 @@
       <c r="AA3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
         <v>87</v>
       </c>
@@ -3145,24 +5109,24 @@
       <c r="AF3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9">
         <v>0</v>
       </c>
-      <c r="AI3" s="11"/>
+      <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>90</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <v>324</v>
       </c>
       <c r="AO3" s="9" t="s">
@@ -3187,29 +5151,29 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
@@ -3225,100 +5189,100 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>316</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>200</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>316</v>
       </c>
     </row>
@@ -3346,33 +5310,33 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E1" sqref="E1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.8359375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.4296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.4296875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:19">
@@ -3388,103 +5352,103 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>10000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>316</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>200</v>
       </c>
       <c r="S2" s="9">
@@ -3506,46 +5470,46 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
-    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.71875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
@@ -3561,132 +5525,132 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3729,8 +5693,8 @@
       <c r="R2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="U2" s="9"/>
@@ -3740,8 +5704,8 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
         <v>87</v>
       </c>
@@ -3751,24 +5715,24 @@
       <c r="AF2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="11"/>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="11"/>
+      <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="7" t="s">
         <v>105</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>316</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -3779,16 +5743,16 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3831,8 +5795,8 @@
       <c r="R3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -3856,8 +5820,8 @@
       <c r="AA3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="5" t="s">
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AD3" s="9" t="s">
@@ -3869,24 +5833,24 @@
       <c r="AF3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9">
         <v>0</v>
       </c>
-      <c r="AI3" s="11"/>
+      <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>105</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <v>316</v>
       </c>
       <c r="AO3" s="9" t="s">
@@ -3911,29 +5875,29 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8359375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.4296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7890625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.2890625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.859375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.4296875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
@@ -3949,100 +5913,100 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>319</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>200</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>319</v>
       </c>
     </row>
@@ -4069,34 +6033,34 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.0078125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.8359375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.4296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.2890625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.859375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.4296875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:19">
@@ -4112,103 +6076,103 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>25</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>319</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>200</v>
       </c>
       <c r="S2" s="9">
@@ -4226,50 +6190,50 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8359375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.8359375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8359375" style="3" customWidth="1"/>
-    <col min="17" max="18" width="17.8359375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.71875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5234375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7734375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.9140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7734375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.7734375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6171875" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7734375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.7734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7734375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.4296875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1796875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.859375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
@@ -4285,132 +6249,132 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4453,8 +6417,8 @@
       <c r="R2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="U2" s="9"/>
@@ -4464,8 +6428,8 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
         <v>87</v>
       </c>
@@ -4475,24 +6439,24 @@
       <c r="AF2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="11"/>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="9">
         <v>0</v>
       </c>
-      <c r="AI2" s="11"/>
+      <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="7" t="s">
         <v>113</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>319</v>
       </c>
       <c r="AO2" s="9" t="s">
@@ -4503,16 +6467,16 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -4555,8 +6519,8 @@
       <c r="R3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -4580,8 +6544,8 @@
       <c r="AA3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="5" t="s">
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AD3" s="9" t="s">
@@ -4593,24 +6557,24 @@
       <c r="AF3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="11"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9">
         <v>0</v>
       </c>
-      <c r="AI3" s="11"/>
+      <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>113</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <v>319</v>
       </c>
       <c r="AO3" s="9" t="s">

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="31" activeTab="35"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="49" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,23 @@
     <sheet name="Driving_Add_Item_Player3" sheetId="41" r:id="rId35"/>
     <sheet name="Driving_Add_Item_Player4" sheetId="42" r:id="rId36"/>
     <sheet name="Rental_Create_Bill_Player1" sheetId="13" r:id="rId37"/>
-    <sheet name="Rental_List_Menu" sheetId="14" r:id="rId38"/>
-    <sheet name="Retal_Add_Item_Player1" sheetId="15" r:id="rId39"/>
-    <sheet name="Proshop_Create_Bill_Player1" sheetId="16" r:id="rId40"/>
-    <sheet name="Proshop_List_Menu" sheetId="17" r:id="rId41"/>
-    <sheet name="Proshop_Add_Item_Player1" sheetId="18" r:id="rId42"/>
+    <sheet name="Rental_Create_Bill_Player2" sheetId="43" r:id="rId38"/>
+    <sheet name="Rental_Create_Bill_Player3" sheetId="44" r:id="rId39"/>
+    <sheet name="Rental_Create_Bill_Player4" sheetId="45" r:id="rId40"/>
+    <sheet name="Rental_List_Menu" sheetId="14" r:id="rId41"/>
+    <sheet name="Retal_Add_Item_Player1" sheetId="15" r:id="rId42"/>
+    <sheet name="Retal_Add_Item_Player2" sheetId="46" r:id="rId43"/>
+    <sheet name="Retal_Add_Item_Player3" sheetId="47" r:id="rId44"/>
+    <sheet name="Retal_Add_Item_Player4" sheetId="48" r:id="rId45"/>
+    <sheet name="Proshop_Create_Bill_Player1" sheetId="16" r:id="rId46"/>
+    <sheet name="Proshop_Create_Bill_Player2" sheetId="49" r:id="rId47"/>
+    <sheet name="Proshop_Create_Bill_Player3" sheetId="50" r:id="rId48"/>
+    <sheet name="Proshop_Create_Bill_Player4" sheetId="51" r:id="rId49"/>
+    <sheet name="Proshop_List_Menu" sheetId="17" r:id="rId50"/>
+    <sheet name="Proshop_Add_Item_Player1" sheetId="18" r:id="rId51"/>
+    <sheet name="Proshop_Add_Item_Player2" sheetId="52" r:id="rId52"/>
+    <sheet name="Proshop_Add_Item_Player3" sheetId="53" r:id="rId53"/>
+    <sheet name="Proshop_Add_Item_Player4" sheetId="54" r:id="rId54"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="223">
   <si>
     <t>tc_id</t>
   </si>
@@ -668,6 +680,45 @@
   </si>
   <si>
     <t>rental_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_002</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_003</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_005</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item cho bag</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_002</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_003</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_005</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_002</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_003</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_004</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_005</t>
   </si>
   <si>
     <t>proshop_create_bill_request.json</t>
@@ -3767,7 +3818,7 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD3" sqref="AD3:AJ3"/>
     </sheetView>
   </sheetViews>
@@ -5959,7 +6010,7 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
@@ -8521,7 +8572,7 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
@@ -9335,8 +9386,8 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -9743,7 +9794,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -9900,6 +9951,663 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>321</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>321</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="27.0571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="9" max="12" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.4" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.14285714285714" style="1"/>
+    <col min="23" max="23" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15">
+        <v>324</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="15">
+        <v>2</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="15">
+        <v>200</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="15">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>321</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O2"/>
@@ -10028,13 +10736,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
@@ -10880,43 +11588,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="27.0571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="3" customWidth="1"/>
-    <col min="9" max="12" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7904761904762" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1619047619048" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.14285714285714" style="1"/>
-    <col min="23" max="23" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.14285714285714" style="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="23" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="31" max="34" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5714285714286" style="3" customWidth="1"/>
+    <col min="36" max="37" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="38" max="38" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="40" max="40" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:46">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10929,119 +11652,787 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>321</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="7">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>321</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="7">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="V3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>321</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>321</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR5" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>321</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>321</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="7">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15">
-        <v>324</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="15">
-        <v>2</v>
-      </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="15">
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="9">
         <v>200</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="AQ7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="15">
-        <v>324</v>
+      <c r="AT7" s="9">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -11050,7 +12441,1713 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="23" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="31" max="34" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.4285714285714" style="3" customWidth="1"/>
+    <col min="36" max="37" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="38" max="38" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="40" max="40" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:46">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
+      <c r="A2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>321</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="7">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>321</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="7">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>321</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>321</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR5" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>321</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>321</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="7">
+        <v>18</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="23" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="31" max="34" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18" style="3" customWidth="1"/>
+    <col min="36" max="37" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="38" max="38" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="40" max="40" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:46">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
+      <c r="A2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>321</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="7">
+        <v>18</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>321</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="7">
+        <v>18</v>
+      </c>
+      <c r="U3" s="7">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>321</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>321</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR5" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>321</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>321</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="7">
+        <v>18</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R6"/>
@@ -11151,7 +14248,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -11179,7 +14276,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -11188,7 +14285,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -11212,174 +14309,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
-    <col min="4" max="8" width="30" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="3" customWidth="1"/>
-    <col min="13" max="18" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="15">
-        <v>322</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="S2" s="15">
-        <v>200</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="9">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -11387,41 +14326,24 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="3" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11434,340 +14356,438 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>322</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A2" s="7" t="s">
-        <v>91</v>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="15">
         <v>322</v>
       </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>96</v>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="15">
+        <v>200</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL2" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1333333333333" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7904761904762" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1619047619048" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15">
+        <v>322</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="15">
         <v>200</v>
       </c>
-      <c r="AM2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN2" s="15">
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="15">
         <v>322</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9">
-        <v>322</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>200</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN3" s="15">
-        <v>322</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>200000</v>
-      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="7:7">
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11930,6 +14950,1788 @@
       </c>
       <c r="T2" s="9">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="8" width="30" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="13" max="18" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="15">
+        <v>322</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="15">
+        <v>200</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7142857142857" style="3" customWidth="1"/>
+    <col min="32" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>322</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1428571428571" style="3" customWidth="1"/>
+    <col min="32" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>322</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.2857142857143" style="3" customWidth="1"/>
+    <col min="32" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>322</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.9047619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="3" customWidth="1"/>
+    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1428571428571" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5238095238095" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.9142857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6190476190476" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="32" max="33" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7714285714286" style="3" customWidth="1"/>
+    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.1809523809524" style="1" customWidth="1"/>
+    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.6380952380952" style="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="88" customHeight="1" spans="1:42">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="9">
+        <v>322</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="49" activeTab="53"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="222">
   <si>
     <t>tc_id</t>
   </si>
@@ -226,31 +226,43 @@
     <t>{{CTX:BAG_3}}</t>
   </si>
   <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>sort_by</t>
-  </si>
-  <si>
-    <t>sort_dir</t>
-  </si>
-  <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>code_or_name</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>group_code</t>
+    <t>q_limit</t>
+  </si>
+  <si>
+    <t>q_page</t>
+  </si>
+  <si>
+    <t>q_sort_by</t>
+  </si>
+  <si>
+    <t>q_sort_dir</t>
+  </si>
+  <si>
+    <t>q_course_uid</t>
+  </si>
+  <si>
+    <t>q_partner_uid</t>
+  </si>
+  <si>
+    <t>q_item_code</t>
+  </si>
+  <si>
+    <t>q_product_name</t>
+  </si>
+  <si>
+    <t>q_code_or_name</t>
+  </si>
+  <si>
+    <t>q_type</t>
+  </si>
+  <si>
+    <t>q_service_id</t>
+  </si>
+  <si>
+    <t>q_status</t>
+  </si>
+  <si>
+    <t>q_group_code</t>
   </si>
   <si>
     <t>assert_size_data</t>
@@ -262,9 +274,6 @@
     <t>Kiểm tra lấy danh sách item của kho restaurant</t>
   </si>
   <si>
-    <t>restaurant_list_menu_request.json</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -475,9 +484,6 @@
     <t>Kiểm tra lấy danh sách item của kho kiosk</t>
   </si>
   <si>
-    <t>kiosk_list_menu_request.json</t>
-  </si>
-  <si>
     <t>kiosk_list_menu_expect.json</t>
   </si>
   <si>
@@ -532,18 +538,15 @@
     <t>DRIVING</t>
   </si>
   <si>
-    <t>is_driving</t>
-  </si>
-  <si>
-    <t>guest_style</t>
+    <t>q_is_driving</t>
+  </si>
+  <si>
+    <t>q_guest_style</t>
   </si>
   <si>
     <t>assert_size_rentals</t>
   </si>
   <si>
-    <t>driving_list_menu_request.json</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -589,9 +592,6 @@
     <t>Kiểm tra lấy danh sách item của rental</t>
   </si>
   <si>
-    <t>rental_list_menu_request.json</t>
-  </si>
-  <si>
     <t>rental_list_menu_expect.json</t>
   </si>
   <si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>assert_total</t>
-  </si>
-  <si>
-    <t>proshop_list_menu_request.json</t>
   </si>
   <si>
     <t>proshop_list_menu_expect.json</t>
@@ -2296,7 +2293,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2324,7 +2321,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2333,7 +2330,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2458,7 +2455,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2486,7 +2483,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2495,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2621,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2649,7 +2646,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2658,7 +2655,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2783,7 +2780,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2811,7 +2808,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2820,7 +2817,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2849,8 +2846,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2905,28 +2902,28 @@
         <v>51</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>16</v>
@@ -2935,22 +2932,20 @@
         <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="15">
         <v>10000</v>
       </c>
@@ -2958,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>26</v>
@@ -2970,23 +2965,23 @@
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N2" s="15">
         <v>316</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -3088,61 +3083,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -3151,13 +3146,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -3175,24 +3170,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3214,29 +3209,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3248,13 +3243,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -3262,16 +3257,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3285,16 +3280,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -3316,63 +3311,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -3380,16 +3375,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -3494,61 +3489,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -3557,13 +3552,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -3581,24 +3576,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3620,29 +3615,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3654,13 +3649,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -3668,16 +3663,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3691,16 +3686,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -3722,63 +3717,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -3786,16 +3781,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -3900,61 +3895,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -3963,13 +3958,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -3987,24 +3982,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4026,29 +4021,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4060,13 +4055,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -4074,16 +4069,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4097,16 +4092,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4128,63 +4123,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -4192,16 +4187,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4306,61 +4301,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -4369,13 +4364,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -4393,24 +4388,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4432,29 +4427,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4466,13 +4461,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -4480,16 +4475,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4503,16 +4498,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4534,63 +4529,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -4598,16 +4593,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4726,7 +4721,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -4754,7 +4749,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -4763,7 +4758,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5058,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5086,7 +5081,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5095,7 +5090,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5220,7 +5215,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5248,7 +5243,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5257,7 +5252,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5382,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5410,7 +5405,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5419,7 +5414,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5449,7 +5444,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -5504,28 +5499,28 @@
         <v>51</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>16</v>
@@ -5534,21 +5529,21 @@
         <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="15">
         <v>25</v>
@@ -5557,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>26</v>
@@ -5569,23 +5564,23 @@
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N2" s="15">
         <v>319</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -5686,61 +5681,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -5749,13 +5744,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -5773,24 +5768,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -5812,29 +5807,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -5846,13 +5841,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -5860,16 +5855,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -5883,16 +5878,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -5914,63 +5909,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -5978,16 +5973,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6092,61 +6087,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -6155,13 +6150,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -6179,24 +6174,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6218,29 +6213,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6252,13 +6247,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -6266,16 +6261,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6289,16 +6284,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -6320,63 +6315,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -6384,16 +6379,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6498,61 +6493,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -6561,13 +6556,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -6585,24 +6580,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6624,29 +6619,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6658,13 +6653,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -6672,16 +6667,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6695,16 +6690,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -6726,63 +6721,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -6790,16 +6785,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6904,61 +6899,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -6967,13 +6962,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -6991,24 +6986,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -7030,29 +7025,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -7064,13 +7059,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -7078,16 +7073,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -7101,16 +7096,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -7132,63 +7127,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -7196,16 +7191,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -7324,7 +7319,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7352,7 +7347,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7361,7 +7356,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7487,7 +7482,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7515,7 +7510,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7524,7 +7519,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7820,7 +7815,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7848,7 +7843,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7857,7 +7852,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7983,7 +7978,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -8011,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -8020,7 +8015,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -8050,7 +8045,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -8087,22 +8082,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -8111,22 +8106,20 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
@@ -8137,16 +8130,16 @@
         <v>320</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" s="15">
         <v>200</v>
@@ -8246,61 +8239,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -8309,13 +8302,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -8333,24 +8326,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -8372,26 +8365,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -8408,13 +8401,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -8422,16 +8415,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -8445,16 +8438,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -8476,63 +8469,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -8540,16 +8533,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -8653,61 +8646,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -8716,13 +8709,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -8740,24 +8733,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -8779,26 +8772,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -8815,13 +8808,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -8829,16 +8822,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -8852,16 +8845,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -8883,63 +8876,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -8947,16 +8940,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9060,61 +9053,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -9123,13 +9116,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -9147,24 +9140,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9186,26 +9179,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9222,13 +9215,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -9236,16 +9229,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9259,16 +9252,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9290,63 +9283,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -9354,16 +9347,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9467,61 +9460,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -9530,13 +9523,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -9554,24 +9547,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9593,26 +9586,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9629,13 +9622,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -9643,16 +9636,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9666,16 +9659,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9697,63 +9690,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -9761,16 +9754,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9889,7 +9882,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -9917,7 +9910,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -9926,7 +9919,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10052,7 +10045,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10080,7 +10073,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10089,7 +10082,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10214,7 +10207,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10242,7 +10235,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10251,7 +10244,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10546,7 +10539,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10574,7 +10567,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10583,7 +10576,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10613,7 +10606,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -10650,22 +10643,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -10674,28 +10667,26 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
@@ -10706,13 +10697,13 @@
         <v>321</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>170</v>
@@ -10821,31 +10812,31 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>171</v>
@@ -10854,31 +10845,31 @@
         <v>172</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="22" t="s">
         <v>173</v>
@@ -10887,7 +10878,7 @@
         <v>174</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>13</v>
@@ -10896,13 +10887,13 @@
         <v>15</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>14</v>
@@ -10920,15 +10911,15 @@
         <v>20</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>175</v>
@@ -10959,26 +10950,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -10997,13 +10988,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -11011,7 +11002,7 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>177</v>
@@ -11020,7 +11011,7 @@
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -11071,13 +11062,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>181</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
@@ -11107,13 +11098,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -11121,7 +11112,7 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>177</v>
@@ -11130,7 +11121,7 @@
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -11181,13 +11172,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
@@ -11213,13 +11204,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -11227,7 +11218,7 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO4" s="7" t="s">
         <v>177</v>
@@ -11236,7 +11227,7 @@
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -11287,13 +11278,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
@@ -11319,13 +11310,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -11333,7 +11324,7 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>177</v>
@@ -11342,7 +11333,7 @@
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -11393,13 +11384,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>197</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -11425,13 +11416,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -11439,7 +11430,7 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>177</v>
@@ -11448,7 +11439,7 @@
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -11462,10 +11453,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
@@ -11493,26 +11484,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -11520,26 +11511,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -11547,13 +11538,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -11561,7 +11552,7 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>177</v>
@@ -11570,7 +11561,7 @@
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -11674,31 +11665,31 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>171</v>
@@ -11707,31 +11698,31 @@
         <v>172</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="22" t="s">
         <v>173</v>
@@ -11740,7 +11731,7 @@
         <v>174</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>13</v>
@@ -11749,13 +11740,13 @@
         <v>15</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>14</v>
@@ -11773,15 +11764,15 @@
         <v>20</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>175</v>
@@ -11812,26 +11803,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -11850,13 +11841,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -11864,7 +11855,7 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>177</v>
@@ -11873,7 +11864,7 @@
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -11924,13 +11915,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>181</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
@@ -11960,13 +11951,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -11974,7 +11965,7 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>177</v>
@@ -11983,7 +11974,7 @@
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -12034,13 +12025,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
@@ -12066,13 +12057,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -12080,7 +12071,7 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO4" s="7" t="s">
         <v>177</v>
@@ -12089,7 +12080,7 @@
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -12140,13 +12131,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
@@ -12172,13 +12163,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -12186,7 +12177,7 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>177</v>
@@ -12195,7 +12186,7 @@
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -12246,13 +12237,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>197</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -12278,13 +12269,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -12292,7 +12283,7 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>177</v>
@@ -12301,7 +12292,7 @@
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -12315,7 +12306,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>204</v>
@@ -12346,26 +12337,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -12373,26 +12364,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -12400,13 +12391,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -12414,7 +12405,7 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>177</v>
@@ -12423,7 +12414,7 @@
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -12527,31 +12518,31 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>171</v>
@@ -12560,31 +12551,31 @@
         <v>172</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="22" t="s">
         <v>173</v>
@@ -12593,7 +12584,7 @@
         <v>174</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>13</v>
@@ -12602,13 +12593,13 @@
         <v>15</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>14</v>
@@ -12626,15 +12617,15 @@
         <v>20</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>175</v>
@@ -12665,26 +12656,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -12703,13 +12694,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -12717,7 +12708,7 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>177</v>
@@ -12726,7 +12717,7 @@
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -12777,13 +12768,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>181</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
@@ -12813,13 +12804,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -12827,7 +12818,7 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>177</v>
@@ -12836,7 +12827,7 @@
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -12887,13 +12878,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
@@ -12919,13 +12910,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -12933,7 +12924,7 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO4" s="7" t="s">
         <v>177</v>
@@ -12942,7 +12933,7 @@
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -12993,13 +12984,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
@@ -13025,13 +13016,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -13039,7 +13030,7 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>177</v>
@@ -13048,7 +13039,7 @@
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -13099,13 +13090,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>197</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -13131,13 +13122,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -13145,7 +13136,7 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>177</v>
@@ -13154,7 +13145,7 @@
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -13168,7 +13159,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>204</v>
@@ -13199,26 +13190,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -13226,26 +13217,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -13253,13 +13244,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -13267,7 +13258,7 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>177</v>
@@ -13276,7 +13267,7 @@
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -13380,31 +13371,31 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>171</v>
@@ -13413,31 +13404,31 @@
         <v>172</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="22" t="s">
         <v>173</v>
@@ -13446,7 +13437,7 @@
         <v>174</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>13</v>
@@ -13455,13 +13446,13 @@
         <v>15</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>14</v>
@@ -13479,15 +13470,15 @@
         <v>20</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>175</v>
@@ -13518,26 +13509,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -13556,13 +13547,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -13570,7 +13561,7 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO2" s="7" t="s">
         <v>177</v>
@@ -13579,7 +13570,7 @@
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -13630,13 +13621,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>181</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
@@ -13666,13 +13657,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -13680,7 +13671,7 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>177</v>
@@ -13689,7 +13680,7 @@
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -13740,13 +13731,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
@@ -13772,13 +13763,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -13786,7 +13777,7 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO4" s="7" t="s">
         <v>177</v>
@@ -13795,7 +13786,7 @@
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -13846,13 +13837,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>192</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
@@ -13878,13 +13869,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -13892,7 +13883,7 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO5" s="7" t="s">
         <v>177</v>
@@ -13901,7 +13892,7 @@
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -13952,13 +13943,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>197</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
@@ -13984,13 +13975,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -13998,7 +13989,7 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO6" s="7" t="s">
         <v>177</v>
@@ -14007,7 +13998,7 @@
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -14021,7 +14012,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>204</v>
@@ -14052,26 +14043,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -14079,26 +14070,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -14106,13 +14097,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -14120,7 +14111,7 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AO7" s="7" t="s">
         <v>177</v>
@@ -14129,7 +14120,7 @@
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -14801,7 +14792,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -14858,31 +14849,31 @@
         <v>51</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>16</v>
@@ -14891,22 +14882,20 @@
         <v>17</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="15">
         <v>10000</v>
       </c>
@@ -14914,10 +14903,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>26</v>
@@ -14926,24 +14915,24 @@
         <v>25</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O2" s="15">
         <v>324</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S2" s="15">
         <v>200</v>
@@ -14963,8 +14952,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -14972,12 +14961,21 @@
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
-    <col min="4" max="8" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.0095238095238" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.8380952380952" style="3" customWidth="1"/>
-    <col min="13" max="18" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="20" max="20" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="21" max="21" width="22.4285714285714" style="1" customWidth="1"/>
@@ -15012,31 +15010,31 @@
         <v>51</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>16</v>
@@ -15053,17 +15051,15 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="15">
         <v>10000</v>
       </c>
@@ -15071,10 +15067,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>26</v>
@@ -15085,20 +15081,20 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N2" s="15">
         <v>322</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S2" s="15">
         <v>200</v>
@@ -15203,61 +15199,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -15266,13 +15262,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -15290,24 +15286,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -15329,25 +15325,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
@@ -15363,13 +15359,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -15377,10 +15373,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -15400,16 +15396,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -15431,63 +15427,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -15495,10 +15491,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -15609,61 +15605,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -15672,13 +15668,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -15696,24 +15692,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -15735,25 +15731,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
@@ -15769,13 +15765,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -15783,10 +15779,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -15806,16 +15802,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -15837,63 +15833,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -15901,10 +15897,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -16015,61 +16011,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -16078,13 +16074,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -16102,24 +16098,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16141,25 +16137,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
@@ -16175,13 +16171,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -16189,10 +16185,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -16212,16 +16208,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16243,63 +16239,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -16307,10 +16303,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -16339,7 +16335,7 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
@@ -16421,61 +16417,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -16484,13 +16480,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -16508,24 +16504,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16547,25 +16543,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
@@ -16581,13 +16577,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -16595,10 +16591,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -16618,16 +16614,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16649,63 +16645,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
         <v>215</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -16713,10 +16709,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -16825,61 +16821,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -16888,13 +16884,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -16912,24 +16908,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16953,25 +16949,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -16985,13 +16981,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -16999,10 +16995,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -17022,16 +17018,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17055,59 +17051,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17115,10 +17111,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -17227,61 +17223,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -17290,13 +17286,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -17314,24 +17310,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -17355,25 +17351,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -17387,13 +17383,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -17401,10 +17397,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -17424,16 +17420,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17457,59 +17453,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17517,10 +17513,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -17630,61 +17626,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -17693,13 +17689,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -17717,24 +17713,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -17758,25 +17754,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -17790,13 +17786,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -17804,10 +17800,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -17827,16 +17823,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17860,59 +17856,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17920,10 +17916,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -18032,61 +18028,61 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>13</v>
@@ -18095,13 +18091,13 @@
         <v>15</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>14</v>
@@ -18119,24 +18115,24 @@
         <v>20</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -18160,25 +18156,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -18192,13 +18188,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -18206,10 +18202,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -18229,16 +18225,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -18262,59 +18258,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -18322,10 +18318,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="46" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
@@ -2846,7 +2846,7 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -14143,8 +14143,8 @@
   <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -14952,8 +14952,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -15117,8 +15117,8 @@
   <sheetPr/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -15129,7 +15129,7 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="229">
   <si>
     <t>tc_id</t>
   </si>
@@ -367,157 +367,178 @@
     <t>ADD_ITEM_PLAYER1_001</t>
   </si>
   <si>
+    <t>Kiểm tra add 1 item restaurant cho player 1</t>
+  </si>
+  <si>
+    <t>restaurant_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:ITEM_CODE_0}}</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>{{CTX:UNIT_PRICE_0}}</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>{{CTX:ITEM_ID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_ID_0}}</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0}}</t>
+  </si>
+  <si>
+    <t>restaurant_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item restaurant cho player 1</t>
+  </si>
+  <si>
+    <t>restaurant_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:ITEM_CODE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:UNIT_PRICE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:ITEM_ID_1}}</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item restaurant add voucher giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item cho player 2</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_ID_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_1}}</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER2_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item cho player 2</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item cho player 3</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_ID_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_2}}</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item cho player 3</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item cho player 4</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_ID_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_3}}</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER4_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item cho player 4</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>kiosk_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>KIOSK</t>
+  </si>
+  <si>
+    <t>Kiểm tra lấy danh sách item của kho kiosk</t>
+  </si>
+  <si>
+    <t>kiosk_list_menu_expect.json</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item kiosk cho player 1</t>
+  </si>
+  <si>
+    <t>kiosk_add_1item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>kiosk_add_item_to_bill_expect.json</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item kiosk add voucher giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item cho player 1</t>
+  </si>
+  <si>
+    <t>kiosk_add_2item_to_bill_request.json</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_create_bill_expect.json</t>
+  </si>
+  <si>
+    <t>MINI_B</t>
+  </si>
+  <si>
+    <t>mini_bar_list_menu_request.json</t>
+  </si>
+  <si>
+    <t>mini_bar_list_menu_expect.json</t>
+  </si>
+  <si>
     <t>Kiểm tra add 1 item cho player 1</t>
-  </si>
-  <si>
-    <t>restaurant_add_1item_to_bill_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:ITEM_CODE_0}}</t>
-  </si>
-  <si>
-    <t>CREATE</t>
-  </si>
-  <si>
-    <t>{{CTX:UNIT_PRICE_0}}</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>{{CTX:ITEM_ID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_ID_0}}</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_0}}</t>
-  </si>
-  <si>
-    <t>restaurant_add_item_to_bill_expect.json</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 2 item cho player 1</t>
-  </si>
-  <si>
-    <t>restaurant_add_2item_to_bill_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:ITEM_CODE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:UNIT_PRICE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:ITEM_ID_1}}</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER2_001</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 1 item cho player 2</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_ID_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_1}}</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER2_002</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 2 item cho player 2</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 1 item cho player 3</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_ID_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_2}}</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 2 item cho player 3</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 1 item cho player 4</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_ID_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_3}}</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER4_002</t>
-  </si>
-  <si>
-    <t>Kiểm tra add 2 item cho player 4</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_request.json</t>
-  </si>
-  <si>
-    <t>kiosk_create_bill_expect.json</t>
-  </si>
-  <si>
-    <t>KIOSK</t>
-  </si>
-  <si>
-    <t>Kiểm tra lấy danh sách item của kho kiosk</t>
-  </si>
-  <si>
-    <t>kiosk_list_menu_expect.json</t>
-  </si>
-  <si>
-    <t>kiosk_add_1item_to_bill_request.json</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>kiosk_add_item_to_bill_expect.json</t>
-  </si>
-  <si>
-    <t>kiosk_add_2item_to_bill_request.json</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER2_001</t>
-  </si>
-  <si>
-    <t>ADD_2ITEM_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_request.json</t>
-  </si>
-  <si>
-    <t>mini_bar_create_bill_expect.json</t>
-  </si>
-  <si>
-    <t>MINI_B</t>
-  </si>
-  <si>
-    <t>mini_bar_list_menu_request.json</t>
-  </si>
-  <si>
-    <t>mini_bar_list_menu_expect.json</t>
   </si>
   <si>
     <t>mini_bar_add_1item_to_bill_request.json</t>
@@ -1152,7 +1173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1167,6 +1188,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1299,7 +1344,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1311,34 +1356,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,7 +1468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,6 +1517,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1489,9 +1552,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2028,8 +2088,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2077,10 +2137,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -2124,13 +2184,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2142,10 +2202,10 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="15">
@@ -2166,7 +2226,7 @@
       <c r="N2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
@@ -2198,7 +2258,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -2245,7 +2305,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2283,17 +2343,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2301,7 +2361,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -2316,12 +2376,12 @@
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2330,7 +2390,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2407,7 +2467,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2445,17 +2505,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2463,7 +2523,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -2478,12 +2538,12 @@
       <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2492,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2570,7 +2630,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2608,17 +2668,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2626,7 +2686,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -2641,12 +2701,12 @@
       <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2655,7 +2715,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2732,7 +2792,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2770,17 +2830,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2788,7 +2848,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -2803,12 +2863,12 @@
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2817,7 +2877,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2847,7 +2907,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2936,13 +2996,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7"/>
@@ -2979,9 +3039,9 @@
       <c r="O2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -2999,13 +3059,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="26.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -3181,13 +3241,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3231,7 +3291,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3260,13 +3320,13 @@
         <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3278,125 +3338,251 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>316</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>316</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H5" s="9">
         <v>316</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="S5" s="12"/>
+      <c r="T5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL5" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN3" s="15">
+      <c r="AM5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN5" s="15">
         <v>316</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP5" s="9">
         <v>200000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3584,16 +3770,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3637,7 +3823,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3649,7 +3835,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
@@ -3663,16 +3849,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3686,16 +3872,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -3739,7 +3925,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -3764,10 +3950,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
@@ -3781,16 +3967,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -3990,16 +4176,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4043,7 +4229,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4055,7 +4241,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
@@ -4069,16 +4255,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4092,16 +4278,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4145,7 +4331,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -4170,10 +4356,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
@@ -4187,16 +4373,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4396,16 +4582,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4449,7 +4635,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4461,7 +4647,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
@@ -4475,16 +4661,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4498,16 +4684,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4551,7 +4737,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -4576,10 +4762,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
@@ -4593,16 +4779,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4626,7 +4812,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -4673,7 +4859,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -4711,17 +4897,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -4729,7 +4915,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -4744,12 +4930,12 @@
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -4758,7 +4944,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -4788,7 +4974,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -4837,10 +5023,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -4884,13 +5070,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4902,10 +5088,10 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="15">
@@ -4926,7 +5112,7 @@
       <c r="N2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
@@ -4957,8 +5143,8 @@
   <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -5005,7 +5191,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -5043,17 +5229,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5061,7 +5247,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -5076,12 +5262,12 @@
       <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5090,7 +5276,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5167,7 +5353,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -5205,17 +5391,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5223,7 +5409,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -5238,12 +5424,12 @@
       <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5252,7 +5438,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5329,7 +5515,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -5367,17 +5553,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5385,7 +5571,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -5400,12 +5586,12 @@
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5414,7 +5600,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5443,8 +5629,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -5533,17 +5719,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E2" s="15">
         <v>25</v>
@@ -5578,9 +5764,9 @@
       <c r="O2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -5598,13 +5784,13 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -5779,13 +5965,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -5829,7 +6015,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -5858,13 +6044,13 @@
         <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -5876,125 +6062,251 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>319</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>319</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
+      <c r="A5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H5" s="9">
         <v>319</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="S5" s="12"/>
+      <c r="T5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL5" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN3" s="15">
+      <c r="AM5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN5" s="15">
         <v>319</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP5" s="9">
         <v>200000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6182,16 +6494,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6235,7 +6547,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6247,7 +6559,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
@@ -6261,16 +6573,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6284,16 +6596,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -6337,7 +6649,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -6362,10 +6674,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
@@ -6379,16 +6691,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6588,16 +6900,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6641,7 +6953,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6653,7 +6965,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
@@ -6667,16 +6979,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6690,16 +7002,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -6743,7 +7055,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -6768,10 +7080,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
@@ -6785,16 +7097,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6994,16 +7306,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -7047,7 +7359,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -7059,7 +7371,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
@@ -7073,16 +7385,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -7096,16 +7408,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -7149,7 +7461,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -7174,10 +7486,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
@@ -7191,16 +7503,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -7223,8 +7535,8 @@
   <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -7271,7 +7583,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -7309,17 +7621,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7327,7 +7639,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -7342,12 +7654,12 @@
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7356,7 +7668,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7434,7 +7746,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -7472,17 +7784,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7490,7 +7802,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -7505,12 +7817,12 @@
       <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7519,7 +7831,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7598,10 +7910,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -7645,13 +7957,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -7663,10 +7975,10 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="15">
@@ -7687,7 +7999,7 @@
       <c r="N2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
@@ -7767,7 +8079,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -7805,17 +8117,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7823,7 +8135,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -7838,12 +8150,12 @@
       <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7852,7 +8164,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7930,7 +8242,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -7968,17 +8280,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7986,7 +8298,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -8001,12 +8313,12 @@
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -8015,7 +8327,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -8044,8 +8356,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -8093,11 +8405,11 @@
       <c r="H1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>153</v>
+      <c r="I1" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -8106,17 +8418,17 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7"/>
@@ -8132,14 +8444,14 @@
       <c r="H2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>156</v>
+      <c r="I2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L2" s="15">
         <v>200</v>
@@ -8157,13 +8469,13 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -8263,7 +8575,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -8289,8 +8601,8 @@
       <c r="AB1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="22" t="s">
-        <v>159</v>
+      <c r="AC1" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -8337,13 +8649,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -8384,7 +8696,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -8418,13 +8730,13 @@
         <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -8436,125 +8748,253 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>320</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T4" s="7">
+        <v>18</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="7">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>320</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
+      <c r="A5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H5" s="9">
         <v>320</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="T3" s="7">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T5" s="7">
         <v>18</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC3" s="7">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="7">
         <v>18</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL5" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN3" s="15">
+      <c r="AM5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN5" s="15">
         <v>320</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP5" s="9">
         <v>200000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8670,7 +9110,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -8696,8 +9136,8 @@
       <c r="AB1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="22" t="s">
-        <v>159</v>
+      <c r="AC1" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -8741,16 +9181,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -8791,7 +9231,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -8808,7 +9248,7 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
@@ -8822,16 +9262,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -8845,16 +9285,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -8895,7 +9335,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -8920,13 +9360,13 @@
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
@@ -8940,16 +9380,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9077,7 +9517,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -9103,8 +9543,8 @@
       <c r="AB1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="22" t="s">
-        <v>159</v>
+      <c r="AC1" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -9148,16 +9588,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9198,7 +9638,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9215,7 +9655,7 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
@@ -9229,16 +9669,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9252,16 +9692,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9302,7 +9742,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -9327,13 +9767,13 @@
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
@@ -9347,16 +9787,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9484,7 +9924,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -9510,8 +9950,8 @@
       <c r="AB1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="22" t="s">
-        <v>159</v>
+      <c r="AC1" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -9555,16 +9995,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9605,7 +10045,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9622,7 +10062,7 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
@@ -9636,16 +10076,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9659,16 +10099,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9709,7 +10149,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -9734,13 +10174,13 @@
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
@@ -9754,16 +10194,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9787,7 +10227,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -9834,7 +10274,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -9872,17 +10312,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -9890,7 +10330,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -9905,12 +10345,12 @@
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -9919,7 +10359,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -9997,7 +10437,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -10035,17 +10475,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10053,7 +10493,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -10068,12 +10508,12 @@
       <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10082,7 +10522,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10159,7 +10599,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -10197,17 +10637,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10215,7 +10655,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -10230,12 +10670,12 @@
       <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10244,7 +10684,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10323,10 +10763,10 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -10370,13 +10810,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -10388,10 +10828,10 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="15">
@@ -10412,7 +10852,7 @@
       <c r="N2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
@@ -10491,7 +10931,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -10529,17 +10969,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10547,7 +10987,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -10562,12 +11002,12 @@
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10576,7 +11016,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10605,8 +11045,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -10654,11 +11094,11 @@
       <c r="H1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>153</v>
+      <c r="I1" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -10667,23 +11107,23 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7"/>
@@ -10699,14 +11139,14 @@
       <c r="H2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>156</v>
+      <c r="J2" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L2" s="15">
         <v>200</v>
@@ -10730,13 +11170,13 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -10836,13 +11276,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -10868,14 +11308,14 @@
       <c r="AD1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>174</v>
+      <c r="AE1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -10922,13 +11362,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -10969,7 +11409,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -11005,13 +11445,13 @@
         <v>104</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -11023,128 +11463,39 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
-      <c r="A3" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9">
-        <v>321</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="T3" s="7">
-        <v>18</v>
-      </c>
-      <c r="U3" s="7">
-        <v>10</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>200</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR3" s="15">
-        <v>321</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
-      <c r="A4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -11166,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
@@ -11175,7 +11526,7 @@
         <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>100</v>
@@ -11185,10 +11536,10 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T4" s="7">
+        <v>18</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -11199,7 +11550,7 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="12"/>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="12"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -11221,13 +11572,13 @@
         <v>104</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -11236,68 +11587,32 @@
         <v>34</v>
       </c>
       <c r="AT4" s="9">
-        <v>400000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
-      <c r="A5" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9">
-        <v>321</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
@@ -11308,55 +11623,33 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
       <c r="AK5" s="12"/>
-      <c r="AL5" s="9">
-        <v>0</v>
-      </c>
+      <c r="AL5" s="9"/>
       <c r="AM5" s="12"/>
-      <c r="AN5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>200</v>
-      </c>
-      <c r="AQ5" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR5" s="15">
-        <v>321</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>400000</v>
-      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -11378,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
@@ -11387,7 +11680,7 @@
         <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>100</v>
@@ -11397,13 +11690,17 @@
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="T6" s="7">
+        <v>18</v>
+      </c>
+      <c r="U6" s="7">
+        <v>10</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -11414,7 +11711,7 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="9"/>
       <c r="AH6" s="9" t="s">
         <v>102</v>
       </c>
@@ -11433,13 +11730,13 @@
         <v>104</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -11453,16 +11750,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -11484,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
@@ -11493,7 +11790,7 @@
         <v>98</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>100</v>
@@ -11503,38 +11800,22 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="T7" s="7">
-        <v>18</v>
+        <v>194</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
       <c r="AC7" s="12"/>
-      <c r="AD7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>18</v>
-      </c>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
@@ -11555,13 +11836,13 @@
         <v>104</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -11570,10 +11851,347 @@
         <v>34</v>
       </c>
       <c r="AT7" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>321</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR8" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>321</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP9" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR9" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="9">
         <v>200000</v>
       </c>
     </row>
+    <row r="10" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
+      <c r="A10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>321</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T10" s="7">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>200</v>
+      </c>
+      <c r="AQ10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR10" s="15">
+        <v>321</v>
+      </c>
+      <c r="AS10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -11689,13 +12307,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -11721,14 +12339,14 @@
       <c r="AD1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>174</v>
+      <c r="AE1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -11772,16 +12390,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -11822,7 +12440,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -11841,7 +12459,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>39</v>
@@ -11855,16 +12473,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -11878,16 +12496,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -11909,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
@@ -11918,7 +12536,7 @@
         <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>100</v>
@@ -11928,7 +12546,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -11937,7 +12555,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -11951,7 +12569,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>39</v>
@@ -11965,16 +12583,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -11988,16 +12606,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -12019,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
@@ -12028,7 +12646,7 @@
         <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>100</v>
@@ -12038,10 +12656,10 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -12057,7 +12675,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>39</v>
@@ -12071,16 +12689,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -12094,16 +12712,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -12125,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
@@ -12134,7 +12752,7 @@
         <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>100</v>
@@ -12144,10 +12762,10 @@
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -12163,7 +12781,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>39</v>
@@ -12177,16 +12795,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -12200,16 +12818,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -12231,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
@@ -12240,7 +12858,7 @@
         <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>100</v>
@@ -12250,10 +12868,10 @@
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -12269,7 +12887,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>39</v>
@@ -12283,16 +12901,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -12306,16 +12924,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -12356,7 +12974,7 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -12383,7 +13001,7 @@
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -12391,7 +13009,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>39</v>
@@ -12405,16 +13023,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -12542,13 +13160,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -12574,14 +13192,14 @@
       <c r="AD1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>174</v>
+      <c r="AE1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -12625,16 +13243,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -12675,7 +13293,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -12694,7 +13312,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>43</v>
@@ -12708,16 +13326,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -12731,16 +13349,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -12762,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
@@ -12771,7 +13389,7 @@
         <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>100</v>
@@ -12781,7 +13399,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -12790,7 +13408,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -12804,7 +13422,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>43</v>
@@ -12818,16 +13436,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -12841,16 +13459,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -12872,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
@@ -12881,7 +13499,7 @@
         <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>100</v>
@@ -12891,10 +13509,10 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -12910,7 +13528,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>43</v>
@@ -12924,16 +13542,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -12947,16 +13565,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -12978,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
@@ -12987,7 +13605,7 @@
         <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>100</v>
@@ -12997,10 +13615,10 @@
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -13016,7 +13634,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>43</v>
@@ -13030,16 +13648,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -13053,16 +13671,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -13084,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
@@ -13093,7 +13711,7 @@
         <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>100</v>
@@ -13103,10 +13721,10 @@
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -13122,7 +13740,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>43</v>
@@ -13136,16 +13754,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -13159,16 +13777,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -13209,7 +13827,7 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -13236,7 +13854,7 @@
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -13244,7 +13862,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>43</v>
@@ -13258,16 +13876,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -13395,13 +14013,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -13427,14 +14045,14 @@
       <c r="AD1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>174</v>
+      <c r="AE1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -13478,16 +14096,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -13528,7 +14146,7 @@
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -13547,7 +14165,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>47</v>
@@ -13561,16 +14179,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -13584,16 +14202,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -13615,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
@@ -13624,7 +14242,7 @@
         <v>98</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>100</v>
@@ -13634,7 +14252,7 @@
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -13643,7 +14261,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -13657,7 +14275,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>47</v>
@@ -13671,16 +14289,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -13694,16 +14312,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -13725,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
@@ -13734,7 +14352,7 @@
         <v>98</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>100</v>
@@ -13744,10 +14362,10 @@
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -13763,7 +14381,7 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>47</v>
@@ -13777,16 +14395,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -13800,16 +14418,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -13831,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
@@ -13840,7 +14458,7 @@
         <v>98</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>100</v>
@@ -13850,10 +14468,10 @@
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -13869,7 +14487,7 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>47</v>
@@ -13883,16 +14501,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -13906,16 +14524,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -13937,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
@@ -13946,7 +14564,7 @@
         <v>98</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>100</v>
@@ -13956,10 +14574,10 @@
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -13975,7 +14593,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>47</v>
@@ -13989,16 +14607,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -14012,16 +14630,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -14062,7 +14680,7 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -14089,7 +14707,7 @@
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -14097,7 +14715,7 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>47</v>
@@ -14111,16 +14729,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -14191,7 +14809,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -14229,17 +14847,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -14247,7 +14865,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -14262,12 +14880,12 @@
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -14276,7 +14894,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -14353,7 +14971,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -14391,17 +15009,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -14409,7 +15027,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -14424,12 +15042,12 @@
       <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -14438,7 +15056,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -14515,7 +15133,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -14553,17 +15171,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -14571,7 +15189,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -14586,12 +15204,12 @@
       <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -14600,7 +15218,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -14677,7 +15295,7 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -14715,17 +15333,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -14733,7 +15351,7 @@
       <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="15">
@@ -14748,12 +15366,12 @@
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -14762,7 +15380,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -14792,7 +15410,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -14886,13 +15504,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7"/>
@@ -14920,7 +15538,7 @@
       <c r="L2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="15" t="s">
         <v>67</v>
       </c>
@@ -14930,7 +15548,7 @@
       <c r="P2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="24"/>
       <c r="R2" s="7" t="s">
         <v>69</v>
       </c>
@@ -15033,8 +15651,8 @@
       <c r="P1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>153</v>
+      <c r="Q1" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>16</v>
@@ -15043,20 +15661,20 @@
         <v>17</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7"/>
@@ -15089,12 +15707,12 @@
       <c r="O2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="20" t="s">
-        <v>156</v>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="S2" s="15">
         <v>200</v>
@@ -15115,13 +15733,13 @@
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -15297,13 +15915,13 @@
         <v>94</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -15347,7 +15965,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -15376,13 +15994,13 @@
         <v>104</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -15394,125 +16012,295 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>322</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H6" s="9">
         <v>322</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V6" s="9">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL3" s="9">
+      <c r="AK6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL6" s="9">
         <v>200</v>
       </c>
-      <c r="AM3" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN3" s="15">
+      <c r="AM6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN6" s="15">
         <v>322</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AP6" s="9">
         <v>200000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -15700,16 +16488,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -15753,7 +16541,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -15765,7 +16553,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
@@ -15779,16 +16567,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -15802,16 +16590,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -15855,7 +16643,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -15880,10 +16668,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
@@ -15897,16 +16685,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -16106,16 +16894,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16159,7 +16947,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -16171,7 +16959,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
@@ -16185,16 +16973,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -16208,16 +16996,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16261,7 +17049,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -16286,10 +17074,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
@@ -16303,16 +17091,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -16512,16 +17300,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16565,7 +17353,7 @@
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -16577,7 +17365,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
@@ -16591,16 +17379,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -16614,16 +17402,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16667,7 +17455,7 @@
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>109</v>
@@ -16692,10 +17480,10 @@
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
@@ -16709,16 +17497,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -16739,15 +17527,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="27.7238095238095" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
@@ -17132,7 +17920,133 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="4" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>324</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>324</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -17318,10 +18232,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -17383,7 +18297,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
@@ -17397,7 +18311,7 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>105</v>
@@ -17420,10 +18334,10 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
@@ -17499,7 +18413,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
@@ -17513,7 +18427,7 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>105</v>
@@ -17721,10 +18635,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -17786,7 +18700,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
@@ -17800,7 +18714,7 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>105</v>
@@ -17823,10 +18737,10 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
@@ -17902,7 +18816,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
@@ -17916,7 +18830,7 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>105</v>
@@ -18123,10 +19037,10 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -18188,7 +19102,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
@@ -18202,7 +19116,7 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>105</v>
@@ -18225,10 +19139,10 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
@@ -18304,7 +19218,7 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
@@ -18318,7 +19232,7 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>105</v>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -15733,13 +15733,13 @@
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP6"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -16012,150 +16012,202 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="9">
         <v>322</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9" t="s">
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="7" t="s">
+      <c r="S5" s="12"/>
+      <c r="T5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>200</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN4" s="15">
-        <v>322</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
@@ -16164,142 +16216,134 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="12"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="9"/>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
+      <c r="AJ5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>322</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>90000</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9">
-        <v>322</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="9">
-        <v>1</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="12"/>
-      <c r="AC6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="12"/>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
+      <c r="AH6" s="9"/>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL6" s="9">
-        <v>200</v>
-      </c>
-      <c r="AM6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>322</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>200000</v>
-      </c>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/input_excel_file/booking/POS.xlsx
+++ b/src/main/resources/input_excel_file/booking/POS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="46" activeTab="50"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurant_Create_Bill_Player1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="237">
   <si>
     <t>tc_id</t>
   </si>
@@ -364,6 +364,9 @@
     <t>assert_amount</t>
   </si>
   <si>
+    <t>Add item khi đang chơi round 1</t>
+  </si>
+  <si>
     <t>ADD_ITEM_PLAYER1_001</t>
   </si>
   <si>
@@ -418,6 +421,18 @@
     <t>{{CTX:ITEM_ID_1}}</t>
   </si>
   <si>
+    <t>Add item khi đang chơi round 2</t>
+  </si>
+  <si>
+    <t>ADD_ITEM_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item restaurant số lượng 2</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0_ROUND2}}</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
   </si>
   <si>
@@ -427,6 +442,18 @@
     <t>Kiểm tra add 1 item restaurant add voucher giảm 10% all fee</t>
   </si>
   <si>
+    <t>ADD_ITEM_PLAYER1_VC_ALL_10_002</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 1 item restaurant số lượng 2 +  add voucher giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>ADD_2ITEM_PLAYER1_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra add 2 item restaurant add voucher giảm 10% all fee</t>
+  </si>
+  <si>
     <t>ADD_ITEM_PLAYER2_001</t>
   </si>
   <si>
@@ -635,9 +662,6 @@
   </si>
   <si>
     <t>rental_add_item_to_bill_expect.json</t>
-  </si>
-  <si>
-    <t>ADD_ITEM_PLAYER1_002</t>
   </si>
   <si>
     <t>Kiểm tra thêm Booking caddie cho bag</t>
@@ -961,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,6 +1007,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1212,6 +1248,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1344,7 +1393,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,119 +1405,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1600,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2088,8 +2188,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -2353,7 +2453,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2381,7 +2481,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2390,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2515,7 +2615,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2543,7 +2643,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2552,7 +2652,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2678,7 +2778,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2706,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2715,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -2840,7 +2940,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -2868,7 +2968,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -2877,7 +2977,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="R2" s="15">
         <v>316</v>
@@ -3000,7 +3100,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -3041,7 +3141,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -3238,16 +3338,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3269,29 +3369,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3303,13 +3403,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -3317,16 +3417,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3341,7 +3441,7 @@
     <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3361,16 +3461,16 @@
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -3392,29 +3492,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -3426,13 +3526,13 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="9">
@@ -3440,16 +3540,16 @@
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL4" s="9">
         <v>200</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN4" s="15">
         <v>316</v>
@@ -3463,16 +3563,16 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -3494,63 +3594,63 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V5" s="9">
         <v>1</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="12"/>
       <c r="AC5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="9">
@@ -3558,16 +3658,16 @@
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL5" s="9">
         <v>200</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN5" s="15">
         <v>316</v>
@@ -3770,16 +3870,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -3801,29 +3901,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3835,13 +3935,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -3849,16 +3949,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -3872,16 +3972,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -3903,63 +4003,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -3967,16 +4067,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4176,16 +4276,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4207,29 +4307,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4241,13 +4341,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -4255,16 +4355,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4278,16 +4378,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4309,63 +4409,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -4373,16 +4473,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4582,16 +4682,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -4613,29 +4713,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -4647,13 +4747,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -4661,16 +4761,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN2" s="15">
         <v>316</v>
@@ -4684,16 +4784,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -4715,63 +4815,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -4779,16 +4879,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AN3" s="15">
         <v>316</v>
@@ -4907,7 +5007,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -4935,7 +5035,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -4944,7 +5044,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5239,7 +5339,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5267,7 +5367,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5276,7 +5376,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5401,7 +5501,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5429,7 +5529,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5438,7 +5538,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5563,7 +5663,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -5591,7 +5691,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -5600,7 +5700,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R2" s="15">
         <v>319</v>
@@ -5723,13 +5823,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E2" s="15">
         <v>25</v>
@@ -5766,7 +5866,7 @@
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="R2" s="15">
         <v>200</v>
@@ -5962,16 +6062,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -5993,29 +6093,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6027,13 +6127,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -6041,16 +6141,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6065,7 +6165,7 @@
     <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -6085,16 +6185,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -6116,29 +6216,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -6150,13 +6250,13 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="9">
@@ -6164,16 +6264,16 @@
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL4" s="9">
         <v>200</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN4" s="15">
         <v>319</v>
@@ -6187,16 +6287,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -6218,63 +6318,63 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V5" s="9">
         <v>1</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="12"/>
       <c r="AC5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="9">
@@ -6282,16 +6382,16 @@
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL5" s="9">
         <v>200</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN5" s="15">
         <v>319</v>
@@ -6494,16 +6594,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6525,29 +6625,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6559,13 +6659,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -6573,16 +6673,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -6596,16 +6696,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -6627,63 +6727,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -6691,16 +6791,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -6900,16 +7000,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -6931,29 +7031,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -6965,13 +7065,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -6979,16 +7079,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -7002,16 +7102,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -7033,63 +7133,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -7097,16 +7197,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -7306,16 +7406,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -7337,29 +7437,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -7371,13 +7471,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -7385,16 +7485,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="15">
         <v>319</v>
@@ -7408,16 +7508,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -7439,63 +7539,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -7503,16 +7603,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="15">
         <v>319</v>
@@ -7631,7 +7731,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7659,7 +7759,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7668,7 +7768,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -7794,7 +7894,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -7822,7 +7922,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -7831,7 +7931,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -8127,7 +8227,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -8155,7 +8255,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -8164,7 +8264,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -8290,7 +8390,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -8318,7 +8418,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -8327,7 +8427,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R2" s="15">
         <v>320</v>
@@ -8406,10 +8506,10 @@
         <v>59</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -8418,7 +8518,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
@@ -8426,7 +8526,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -8445,13 +8545,13 @@
         <v>68</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L2" s="15">
         <v>200</v>
@@ -8575,7 +8675,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -8602,7 +8702,7 @@
         <v>87</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -8646,16 +8746,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -8677,26 +8777,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -8713,13 +8813,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -8727,16 +8827,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -8751,7 +8851,7 @@
     <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -8771,16 +8871,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -8802,26 +8902,26 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T4" s="7">
         <v>18</v>
@@ -8838,13 +8938,13 @@
         <v>18</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="9">
@@ -8852,16 +8952,16 @@
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL4" s="9">
         <v>200</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN4" s="15">
         <v>320</v>
@@ -8875,16 +8975,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -8906,63 +9006,63 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T5" s="7">
         <v>18</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V5" s="9">
         <v>1</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AC5" s="7">
         <v>18</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="9">
@@ -8970,16 +9070,16 @@
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL5" s="9">
         <v>200</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN5" s="15">
         <v>320</v>
@@ -9110,7 +9210,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -9137,7 +9237,7 @@
         <v>87</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -9181,16 +9281,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9212,26 +9312,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9248,13 +9348,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -9262,16 +9362,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9285,16 +9385,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9316,63 +9416,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -9380,16 +9480,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9517,7 +9617,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -9544,7 +9644,7 @@
         <v>87</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -9588,16 +9688,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -9619,26 +9719,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -9655,13 +9755,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -9669,16 +9769,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -9692,16 +9792,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -9723,63 +9823,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -9787,16 +9887,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -9924,7 +10024,7 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>79</v>
@@ -9951,7 +10051,7 @@
         <v>87</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>88</v>
@@ -9995,16 +10095,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -10026,26 +10126,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -10062,13 +10162,13 @@
         <v>18</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -10076,16 +10176,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="15">
         <v>320</v>
@@ -10099,16 +10199,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -10130,63 +10230,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="7">
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -10194,16 +10294,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AN3" s="15">
         <v>320</v>
@@ -10322,7 +10422,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10350,7 +10450,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10359,7 +10459,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10485,7 +10585,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10513,7 +10613,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10522,7 +10622,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10647,7 +10747,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -10675,7 +10775,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -10684,7 +10784,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -10979,7 +11079,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -11007,7 +11107,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -11016,7 +11116,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R2" s="15">
         <v>321</v>
@@ -11095,10 +11195,10 @@
         <v>59</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>16</v>
@@ -11107,13 +11207,13 @@
         <v>17</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
@@ -11121,7 +11221,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -11143,10 +11243,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L2" s="15">
         <v>200</v>
@@ -11276,13 +11376,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -11309,13 +11409,13 @@
         <v>87</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -11359,16 +11459,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -11390,26 +11490,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -11428,13 +11528,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -11442,16 +11542,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -11466,7 +11566,7 @@
     <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -11486,16 +11586,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -11517,26 +11617,26 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T4" s="7">
         <v>18</v>
@@ -11555,13 +11655,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -11569,16 +11669,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -11640,16 +11740,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -11671,26 +11771,26 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="T6" s="7">
         <v>18</v>
@@ -11699,7 +11799,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -11713,13 +11813,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -11727,16 +11827,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -11750,16 +11850,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -11781,29 +11881,29 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -11819,13 +11919,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -11833,16 +11933,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -11856,16 +11956,16 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A8" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>25</v>
@@ -11887,29 +11987,29 @@
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="9">
         <v>0</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -11925,13 +12025,13 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" s="12"/>
       <c r="AL8" s="9">
@@ -11939,16 +12039,16 @@
       </c>
       <c r="AM8" s="12"/>
       <c r="AN8" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP8" s="9">
         <v>200</v>
       </c>
       <c r="AQ8" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR8" s="15">
         <v>321</v>
@@ -11962,16 +12062,16 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A9" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>25</v>
@@ -11993,29 +12093,29 @@
         <v>1</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M9" s="9">
         <v>1</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="9">
         <v>0</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -12031,13 +12131,13 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" s="12"/>
       <c r="AL9" s="9">
@@ -12045,16 +12145,16 @@
       </c>
       <c r="AM9" s="12"/>
       <c r="AN9" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP9" s="9">
         <v>200</v>
       </c>
       <c r="AQ9" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR9" s="15">
         <v>321</v>
@@ -12068,16 +12168,16 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>25</v>
@@ -12099,26 +12199,26 @@
         <v>1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" s="9">
         <v>1</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T10" s="7">
         <v>18</v>
@@ -12126,26 +12226,26 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X10" s="9">
         <v>1</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB10" s="9">
         <v>0</v>
       </c>
       <c r="AC10" s="12"/>
       <c r="AD10" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AE10" s="7">
         <v>18</v>
@@ -12153,13 +12253,13 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" s="12"/>
       <c r="AL10" s="9">
@@ -12167,16 +12267,16 @@
       </c>
       <c r="AM10" s="12"/>
       <c r="AN10" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP10" s="9">
         <v>200</v>
       </c>
       <c r="AQ10" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR10" s="15">
         <v>321</v>
@@ -12307,13 +12407,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -12340,13 +12440,13 @@
         <v>87</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -12390,16 +12490,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -12421,26 +12521,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -12459,13 +12559,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -12473,16 +12573,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -12496,16 +12596,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -12527,26 +12627,26 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -12555,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -12569,13 +12669,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -12583,16 +12683,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -12606,16 +12706,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -12637,29 +12737,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -12675,13 +12775,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -12689,16 +12789,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -12712,16 +12812,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -12743,29 +12843,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -12781,13 +12881,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -12795,16 +12895,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -12818,16 +12918,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -12849,29 +12949,29 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -12887,13 +12987,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -12901,16 +13001,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -12924,16 +13024,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -12955,26 +13055,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -12982,26 +13082,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -13009,13 +13109,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -13023,16 +13123,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -13160,13 +13260,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -13193,13 +13293,13 @@
         <v>87</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -13243,16 +13343,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -13274,26 +13374,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -13312,13 +13412,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -13326,16 +13426,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -13349,16 +13449,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -13380,26 +13480,26 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -13408,7 +13508,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -13422,13 +13522,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -13436,16 +13536,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -13459,16 +13559,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -13490,29 +13590,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -13528,13 +13628,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -13542,16 +13642,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -13565,16 +13665,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -13596,29 +13696,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -13634,13 +13734,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -13648,16 +13748,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -13671,16 +13771,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -13702,29 +13802,29 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -13740,13 +13840,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -13754,16 +13854,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -13777,16 +13877,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -13808,26 +13908,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -13835,26 +13935,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -13862,13 +13962,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -13876,16 +13976,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -14013,13 +14113,13 @@
         <v>78</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>79</v>
@@ -14046,13 +14146,13 @@
         <v>87</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>88</v>
@@ -14096,16 +14196,16 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="51" customHeight="1" spans="1:46">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -14127,26 +14227,26 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T2" s="7">
         <v>18</v>
@@ -14165,13 +14265,13 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="12"/>
       <c r="AL2" s="9">
@@ -14179,16 +14279,16 @@
       </c>
       <c r="AM2" s="12"/>
       <c r="AN2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP2" s="9">
         <v>200</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="15">
         <v>321</v>
@@ -14202,16 +14302,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A3" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -14233,26 +14333,26 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="T3" s="7">
         <v>18</v>
@@ -14261,7 +14361,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
@@ -14275,13 +14375,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="9">
@@ -14289,16 +14389,16 @@
       </c>
       <c r="AM3" s="12"/>
       <c r="AN3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP3" s="9">
         <v>200</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR3" s="15">
         <v>321</v>
@@ -14312,16 +14412,16 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A4" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -14343,29 +14443,29 @@
         <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M4" s="9">
         <v>1</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -14381,13 +14481,13 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="9">
@@ -14395,16 +14495,16 @@
       </c>
       <c r="AM4" s="12"/>
       <c r="AN4" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP4" s="9">
         <v>200</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR4" s="15">
         <v>321</v>
@@ -14418,16 +14518,16 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A5" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -14449,29 +14549,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -14487,13 +14587,13 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="9">
@@ -14501,16 +14601,16 @@
       </c>
       <c r="AM5" s="12"/>
       <c r="AN5" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP5" s="9">
         <v>200</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR5" s="15">
         <v>321</v>
@@ -14524,16 +14624,16 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A6" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
@@ -14555,29 +14655,29 @@
         <v>1</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -14593,13 +14693,13 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="12"/>
       <c r="AL6" s="9">
@@ -14607,16 +14707,16 @@
       </c>
       <c r="AM6" s="12"/>
       <c r="AN6" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP6" s="9">
         <v>200</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR6" s="15">
         <v>321</v>
@@ -14630,16 +14730,16 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="49" customHeight="1" spans="1:46">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>25</v>
@@ -14661,26 +14761,26 @@
         <v>1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="T7" s="7">
         <v>18</v>
@@ -14688,26 +14788,26 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X7" s="9">
         <v>1</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB7" s="9">
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AE7" s="7">
         <v>18</v>
@@ -14715,13 +14815,13 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="12"/>
       <c r="AL7" s="9">
@@ -14729,16 +14829,16 @@
       </c>
       <c r="AM7" s="12"/>
       <c r="AN7" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP7" s="9">
         <v>200</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AR7" s="15">
         <v>321</v>
@@ -14857,7 +14957,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -14885,7 +14985,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -14894,7 +14994,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -15019,7 +15119,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -15047,7 +15147,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -15056,7 +15156,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -15181,7 +15281,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -15209,7 +15309,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -15218,7 +15318,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -15343,7 +15443,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>25</v>
@@ -15371,7 +15471,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O2" s="15">
         <v>200</v>
@@ -15380,7 +15480,7 @@
         <v>34</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="R2" s="15">
         <v>322</v>
@@ -15652,7 +15752,7 @@
         <v>60</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>16</v>
@@ -15661,10 +15761,10 @@
         <v>17</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
@@ -15672,7 +15772,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -15709,10 +15809,10 @@
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="26" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="S2" s="15">
         <v>200</v>
@@ -15735,7 +15835,7 @@
   <sheetPr/>
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -15912,16 +16012,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -15943,29 +16043,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -15977,13 +16077,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -15991,16 +16091,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -16014,16 +16114,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16045,63 +16145,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -16109,16 +16209,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -16133,7 +16233,7 @@
     <row r="4" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16153,16 +16253,16 @@
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A5" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -16184,29 +16284,29 @@
         <v>1</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="9">
         <v>1</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -16218,13 +16318,13 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="9">
@@ -16232,16 +16332,16 @@
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL5" s="9">
         <v>200</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN5" s="15">
         <v>322</v>
@@ -16532,16 +16632,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16563,29 +16663,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -16597,13 +16697,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -16611,16 +16711,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -16634,16 +16734,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -16665,63 +16765,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -16729,16 +16829,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -16938,16 +17038,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -16969,29 +17069,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -17003,13 +17103,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -17017,16 +17117,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -17040,16 +17140,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17071,63 +17171,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17135,16 +17235,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -17344,16 +17444,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -17375,29 +17475,29 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -17409,13 +17509,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -17423,16 +17523,16 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN2" s="15">
         <v>322</v>
@@ -17446,16 +17546,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17477,63 +17577,63 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17541,16 +17641,16 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AN3" s="15">
         <v>322</v>
@@ -17571,13 +17671,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33.6095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -17746,120 +17846,64 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="28" customFormat="1" ht="24" customHeight="1" spans="1:42">
+      <c r="A2" s="16"/>
+      <c r="B2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9">
-        <v>324</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>200</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN2" s="15">
-        <v>324</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>100000</v>
-      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -17883,59 +17927,45 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -17943,10 +17973,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -17961,135 +17991,779 @@
         <v>34</v>
       </c>
       <c r="AP3" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>324</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>324</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
         <v>200000</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="25" customHeight="1" spans="1:17">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+    <row r="5" s="28" customFormat="1" ht="24" customHeight="1" spans="1:42">
+      <c r="A5" s="16"/>
+      <c r="B5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>324</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>324</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="25" customHeight="1" spans="1:42">
+      <c r="A7" s="16"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="25" customHeight="1" spans="1:42">
+      <c r="A8" s="16"/>
+      <c r="B8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A9" s="7"/>
+      <c r="B9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>324</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>324</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A11" s="7"/>
+      <c r="B11" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="55" customHeight="1" spans="1:42">
+      <c r="A12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9">
+        <v>324</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN12" s="15">
+        <v>324</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:42">
+      <c r="A13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>324</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="9">
+        <v>1</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN13" s="15">
         <v>324</v>
       </c>
-      <c r="I5" s="9">
-        <v>2</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>200</v>
-      </c>
-      <c r="AM5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>324</v>
-      </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AO13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="9">
-        <v>90000</v>
+      <c r="AP13" s="9">
+        <v>180000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18276,16 +18950,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -18309,25 +18983,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -18341,13 +19015,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -18355,10 +19029,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -18378,16 +19052,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -18411,59 +19085,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -18471,10 +19145,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -18679,16 +19353,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -18712,25 +19386,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -18744,13 +19418,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -18758,10 +19432,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -18781,16 +19455,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -18814,59 +19488,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -18874,10 +19548,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
@@ -19081,16 +19755,16 @@
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
@@ -19114,25 +19788,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="9">
         <v>1</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -19146,13 +19820,13 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG2" s="12"/>
       <c r="AH2" s="9">
@@ -19160,10 +19834,10 @@
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL2" s="9">
         <v>200</v>
@@ -19183,16 +19857,16 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:42">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
@@ -19216,59 +19890,59 @@
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="9">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V3" s="9">
         <v>1</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="9">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="9">
@@ -19276,10 +19950,10 @@
       </c>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL3" s="9">
         <v>200</v>
